--- a/Docs/API Extrupet.xlsx
+++ b/Docs/API Extrupet.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t xml:space="preserve">API</t>
   </si>
   <si>
+    <t xml:space="preserve">Method</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parameters</t>
   </si>
   <si>
@@ -40,6 +43,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">api</t>
     </r>
@@ -48,11 +52,15 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/settings/GetUserRoles</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Get</t>
+  </si>
+  <si>
     <t xml:space="preserve">nothing</t>
   </si>
   <si>
@@ -74,6 +82,9 @@
     <t xml:space="preserve">api/settings/UpdateCompanyData</t>
   </si>
   <si>
+    <t xml:space="preserve">Post</t>
+  </si>
+  <si>
     <t xml:space="preserve">CompanyDataSet</t>
   </si>
   <si>
@@ -82,6 +93,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">last updated on utc </t>
     </r>
@@ -91,6 +103,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">will be at Api side</t>
     </r>
@@ -99,6 +112,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> UTC date</t>
     </r>
@@ -121,6 +135,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">User set will have all data except </t>
     </r>
@@ -130,6 +145,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">last updated by and date.</t>
     </r>
@@ -138,6 +154,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> UserGet will also have all data </t>
     </r>
@@ -147,6 +164,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">except pwd</t>
     </r>
@@ -213,6 +231,232 @@
   </si>
   <si>
     <t xml:space="preserve">UserLogin will have LoginId, Pwd. LoginId may be email id or employee id, so build logic that way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create/update grade type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/Settings/SaveGradeType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GradeTypeSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GradeTypeGet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This method will be used for create and update grade type to grade type master table. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">If </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif;Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">GradeTypeId passed 0 then create new else update.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Get all grade type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/settings/GetAllGradeType</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GradeTypeGet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Create/update product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/Product/SaveProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If productId passed null or empty, then create, else update.
+LastUpdatedOnUtc you know will be decided at server side.
+Return GradeType name along with it as that need to be shown in UI table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Later we’ll think validation for change of grade type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get all products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/Product/GetAllProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List&lt;ProductGet&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get single product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/Product/GetProductById</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductDetailsGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a new model, other than Product get, because this model will have many related data. But for now, keep same properties as ProductGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create / update Grade master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/settings/SaveGradeMaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GradeSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GradeGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as above, if GradeId 0 then create, else update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get all Grades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/settings/GetAllGrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create / Update Quality Measurement Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/settings/SaveQualityMeasurementUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QualityMeasurementUnitSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QualityMeasurementUnitGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as above, if id 0 then create, else update</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Quality Measurement Unit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">api/settings/GetAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">QualityMeasurementUnit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">QualityMeasurementUnitGet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -222,11 +466,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -248,15 +493,29 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +532,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF6D"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -310,7 +575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,12 +592,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -412,176 +697,381 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="48.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="48.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
